--- a/secuencias/sti/COSCO SHIPPING URUGU.xlsx
+++ b/secuencias/sti/COSCO SHIPPING URUGU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,110 +495,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TXGU</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>569196</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>A36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SAN ANTONIO TERMINAL INTERNACIONAL S.A.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09/05/2024 16:11 </t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>COSCO SHIPPING URUGU</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>09/05/2024 07:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OOCU</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>727514</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>A36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SAN ANTONIO TERMINAL INTERNACIONAL S.A.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09/05/2024 13:31 </t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>COSCO SHIPPING URUGU</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>09/05/2024 07:35</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
